--- a/team_specific_matrix/Boston U._A.xlsx
+++ b/team_specific_matrix/Boston U._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2051282051282051</v>
+        <v>0.198581560283688</v>
       </c>
       <c r="C2">
-        <v>0.5128205128205128</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02136752136752137</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004273504273504274</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="P2">
-        <v>0.1324786324786325</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1239316239316239</v>
+        <v>0.124113475177305</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008333333333333333</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03333333333333333</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.775</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1833333333333333</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1153846153846154</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5384615384615384</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3461538461538461</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0546448087431694</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01092896174863388</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03278688524590164</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2568306010928962</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04918032786885246</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1693989071038251</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="R6">
-        <v>0.09289617486338798</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3564814814814815</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1151079136690648</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02877697841726619</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07194244604316546</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1366906474820144</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02158273381294964</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1726618705035971</v>
+        <v>0.1703296703296703</v>
       </c>
       <c r="R7">
-        <v>0.07913669064748201</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="S7">
-        <v>0.3741007194244604</v>
+        <v>0.3791208791208791</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08571428571428572</v>
+        <v>0.079155672823219</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01904761904761905</v>
+        <v>0.0158311345646438</v>
       </c>
       <c r="E8">
-        <v>0.003174603174603175</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="F8">
-        <v>0.04761904761904762</v>
+        <v>0.05277044854881267</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1079365079365079</v>
+        <v>0.1134564643799472</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006349206349206349</v>
+        <v>0.005277044854881266</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1555555555555556</v>
+        <v>0.1609498680738786</v>
       </c>
       <c r="R8">
-        <v>0.08888888888888889</v>
+        <v>0.09762532981530343</v>
       </c>
       <c r="S8">
-        <v>0.4857142857142857</v>
+        <v>0.4722955145118733</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06626506024096386</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006024096385542169</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06024096385542169</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1265060240963855</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01807228915662651</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1626506024096386</v>
+        <v>0.1565656565656566</v>
       </c>
       <c r="R9">
-        <v>0.08433734939759036</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S9">
-        <v>0.4759036144578313</v>
+        <v>0.4747474747474748</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1076190476190476</v>
+        <v>0.1076197957580518</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01333333333333333</v>
+        <v>0.01256873527101336</v>
       </c>
       <c r="E10">
-        <v>0.001904761904761905</v>
+        <v>0.001571091908876669</v>
       </c>
       <c r="F10">
-        <v>0.08476190476190476</v>
+        <v>0.07855459544383346</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142857142857143</v>
+        <v>0.1107619795758052</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02190476190476191</v>
+        <v>0.02199528672427337</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1895238095238095</v>
+        <v>0.1846032992930086</v>
       </c>
       <c r="R10">
-        <v>0.08761904761904762</v>
+        <v>0.08876669285153181</v>
       </c>
       <c r="S10">
-        <v>0.379047619047619</v>
+        <v>0.3935585231736057</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1715481171548117</v>
+        <v>0.1607717041800643</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09623430962343096</v>
+        <v>0.1028938906752412</v>
       </c>
       <c r="K11">
-        <v>0.2217573221757322</v>
+        <v>0.2122186495176849</v>
       </c>
       <c r="L11">
-        <v>0.502092050209205</v>
+        <v>0.5112540192926045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008368200836820083</v>
+        <v>0.01286173633440514</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.664</v>
+        <v>0.6787878787878788</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.264</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="K12">
-        <v>0.008</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="L12">
-        <v>0.032</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.032</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.21875</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.125</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01092896174863388</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1748633879781421</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.08743169398907104</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.366120218579235</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="K15">
-        <v>0.03825136612021858</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02185792349726776</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04918032786885246</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2513661202185792</v>
+        <v>0.2675438596491228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1231884057971015</v>
+        <v>0.1301775147928994</v>
       </c>
       <c r="I16">
-        <v>0.07246376811594203</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="J16">
-        <v>0.4492753623188406</v>
+        <v>0.4497041420118343</v>
       </c>
       <c r="K16">
-        <v>0.1521739130434783</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007246376811594203</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06521739130434782</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1304347826086956</v>
+        <v>0.1479289940828402</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01226993865030675</v>
+        <v>0.01288659793814433</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1717791411042945</v>
+        <v>0.1675257731958763</v>
       </c>
       <c r="I17">
-        <v>0.1042944785276074</v>
+        <v>0.1056701030927835</v>
       </c>
       <c r="J17">
-        <v>0.4233128834355828</v>
+        <v>0.4278350515463917</v>
       </c>
       <c r="K17">
-        <v>0.09509202453987731</v>
+        <v>0.1005154639175258</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01840490797546012</v>
+        <v>0.01804123711340206</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002577319587628866</v>
       </c>
       <c r="O17">
-        <v>0.06134969325153374</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1134969325153374</v>
+        <v>0.1030927835051546</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03144654088050314</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2578616352201258</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="I18">
-        <v>0.06918238993710692</v>
+        <v>0.06467661691542288</v>
       </c>
       <c r="J18">
-        <v>0.3962264150943396</v>
+        <v>0.3930348258706468</v>
       </c>
       <c r="K18">
-        <v>0.07547169811320754</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03144654088050314</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06289308176100629</v>
+        <v>0.05970149253731343</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01923076923076923</v>
+        <v>0.01967213114754099</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1730769230769231</v>
+        <v>0.1704918032786885</v>
       </c>
       <c r="I19">
-        <v>0.09817813765182186</v>
+        <v>0.0959016393442623</v>
       </c>
       <c r="J19">
-        <v>0.4200404858299595</v>
+        <v>0.4172131147540983</v>
       </c>
       <c r="K19">
-        <v>0.1153846153846154</v>
+        <v>0.1213114754098361</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01720647773279352</v>
+        <v>0.01557377049180328</v>
       </c>
       <c r="N19">
-        <v>0.001012145748987854</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="O19">
-        <v>0.0728744939271255</v>
+        <v>0.07459016393442623</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08299595141700405</v>
+        <v>0.08442622950819673</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Boston U._A.xlsx
+++ b/team_specific_matrix/Boston U._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.198581560283688</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C2">
-        <v>0.5212765957446809</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01773049645390071</v>
+        <v>0.01582278481012658</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003546099290780142</v>
+        <v>0.003164556962025316</v>
       </c>
       <c r="P2">
-        <v>0.1347517730496454</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.124113475177305</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01351351351351351</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04054054054054054</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7837837837837838</v>
+        <v>0.7965116279069767</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1621621621621622</v>
+        <v>0.1511627906976744</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1379310344827586</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5517241379310345</v>
+        <v>0.5625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.0125</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02777777777777778</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2361111111111111</v>
+        <v>0.2375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05092592592592592</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1527777777777778</v>
+        <v>0.15</v>
       </c>
       <c r="R6">
-        <v>0.1064814814814815</v>
+        <v>0.1125</v>
       </c>
       <c r="S6">
-        <v>0.3564814814814815</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1208791208791209</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02197802197802198</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06593406593406594</v>
+        <v>0.065</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1208791208791209</v>
+        <v>0.115</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02747252747252747</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1703296703296703</v>
+        <v>0.175</v>
       </c>
       <c r="R7">
-        <v>0.09340659340659341</v>
+        <v>0.095</v>
       </c>
       <c r="S7">
-        <v>0.3791208791208791</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.079155672823219</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0158311345646438</v>
+        <v>0.01411764705882353</v>
       </c>
       <c r="E8">
-        <v>0.002638522427440633</v>
+        <v>0.002352941176470588</v>
       </c>
       <c r="F8">
-        <v>0.05277044854881267</v>
+        <v>0.05176470588235294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1134564643799472</v>
+        <v>0.1129411764705882</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005277044854881266</v>
+        <v>0.004705882352941176</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1609498680738786</v>
+        <v>0.1694117647058823</v>
       </c>
       <c r="R8">
-        <v>0.09762532981530343</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="S8">
-        <v>0.4722955145118733</v>
+        <v>0.4658823529411765</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0707070707070707</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005050505050505051</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0707070707070707</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1313131313131313</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0202020202020202</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1565656565656566</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R9">
-        <v>0.0707070707070707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
-        <v>0.4747474747474748</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1076197957580518</v>
+        <v>0.108356940509915</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01256873527101336</v>
+        <v>0.01345609065155807</v>
       </c>
       <c r="E10">
-        <v>0.001571091908876669</v>
+        <v>0.002124645892351275</v>
       </c>
       <c r="F10">
-        <v>0.07855459544383346</v>
+        <v>0.07719546742209632</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1107619795758052</v>
+        <v>0.1076487252124646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02199528672427337</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1846032992930086</v>
+        <v>0.1890934844192635</v>
       </c>
       <c r="R10">
-        <v>0.08876669285153181</v>
+        <v>0.08640226628895184</v>
       </c>
       <c r="S10">
-        <v>0.3935585231736057</v>
+        <v>0.3930594900849859</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1607717041800643</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1028938906752412</v>
+        <v>0.1049562682215743</v>
       </c>
       <c r="K11">
-        <v>0.2122186495176849</v>
+        <v>0.2157434402332362</v>
       </c>
       <c r="L11">
-        <v>0.5112540192926045</v>
+        <v>0.5043731778425656</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01286173633440514</v>
+        <v>0.01166180758017493</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6787878787878788</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2424242424242424</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.006060606060606061</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="L12">
-        <v>0.04242424242424243</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7105263157894737</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1842105263157895</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1052631578947368</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008771929824561403</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1535433070866142</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="J15">
-        <v>0.3552631578947368</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="K15">
-        <v>0.04824561403508772</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02192982456140351</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04824561403508772</v>
+        <v>0.04724409448818898</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2675438596491228</v>
+        <v>0.2559055118110236</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1301775147928994</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="I16">
-        <v>0.05917159763313609</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J16">
-        <v>0.4497041420118343</v>
+        <v>0.4438775510204082</v>
       </c>
       <c r="K16">
-        <v>0.1479289940828402</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005917159763313609</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05917159763313609</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1479289940828402</v>
+        <v>0.1377551020408163</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01288659793814433</v>
+        <v>0.01128668171557562</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1675257731958763</v>
+        <v>0.1738148984198646</v>
       </c>
       <c r="I17">
-        <v>0.1056701030927835</v>
+        <v>0.09932279909706546</v>
       </c>
       <c r="J17">
-        <v>0.4278350515463917</v>
+        <v>0.4266365688487584</v>
       </c>
       <c r="K17">
-        <v>0.1005154639175258</v>
+        <v>0.1038374717832957</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01804123711340206</v>
+        <v>0.02031602708803612</v>
       </c>
       <c r="N17">
-        <v>0.002577319587628866</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="O17">
-        <v>0.06185567010309279</v>
+        <v>0.06320541760722348</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1030927835051546</v>
+        <v>0.09932279909706546</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03482587064676617</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2537313432835821</v>
+        <v>0.253393665158371</v>
       </c>
       <c r="I18">
-        <v>0.06467661691542288</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0.3930348258706468</v>
+        <v>0.3891402714932127</v>
       </c>
       <c r="K18">
-        <v>0.07960199004975124</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03482587064676617</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07960199004975124</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05970149253731343</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01967213114754099</v>
+        <v>0.01938851603281133</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1704918032786885</v>
+        <v>0.1730052199850858</v>
       </c>
       <c r="I19">
-        <v>0.0959016393442623</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="J19">
-        <v>0.4172131147540983</v>
+        <v>0.4175988068605518</v>
       </c>
       <c r="K19">
-        <v>0.1213114754098361</v>
+        <v>0.1185682326621924</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01557377049180328</v>
+        <v>0.01715137956748695</v>
       </c>
       <c r="N19">
-        <v>0.000819672131147541</v>
+        <v>0.0007457121551081282</v>
       </c>
       <c r="O19">
-        <v>0.07459016393442623</v>
+        <v>0.07307979120059657</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08442622950819673</v>
+        <v>0.0842654735272185</v>
       </c>
     </row>
   </sheetData>
